--- a/SLD.xlsx
+++ b/SLD.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761CA26B-8DE9-42E4-8367-B5C19B9EBA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48A71DE-EBC1-410E-A9C9-55750F34C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="1" r:id="rId1"/>
     <sheet name="UKA" sheetId="2" r:id="rId2"/>
+    <sheet name="MBA" sheetId="3" r:id="rId3"/>
+    <sheet name="LAU" sheetId="4" r:id="rId4"/>
+    <sheet name="MYD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>WAT</t>
   </si>
@@ -668,7 +671,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -787,4 +790,361 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E23C9-DC3E-4BE5-A9D5-A8F9D9A54D9A}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6">
+        <v>28</v>
+      </c>
+      <c r="G1" s="6">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="12">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458F40F-3512-4FB5-95B9-40FE45C8F021}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6">
+        <v>28</v>
+      </c>
+      <c r="G1" s="6">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="12">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030846B2-DE93-40EC-9427-11E7F9560AE0}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5">
+        <v>24</v>
+      </c>
+      <c r="E1" s="5">
+        <v>26</v>
+      </c>
+      <c r="F1" s="6">
+        <v>28</v>
+      </c>
+      <c r="G1" s="6">
+        <v>30</v>
+      </c>
+      <c r="H1" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="12">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SLD.xlsx
+++ b/SLD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48A71DE-EBC1-410E-A9C9-55750F34C918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D40823-9DAB-4232-BC5E-5F5C76E2E61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -211,11 +211,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -230,6 +243,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -525,34 +539,34 @@
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="8">
         <v>14</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="8">
         <v>16</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="8">
         <v>18</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="8">
         <v>20</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="8">
         <v>22</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="8">
         <v>24</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="8">
         <v>26</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="8">
         <v>28</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="8">
         <v>30</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="8">
         <v>32</v>
       </c>
     </row>
@@ -668,45 +682,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E87684-97F2-4B59-9B2C-87ADE9D1AE30}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="4" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="14">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14">
+        <v>16</v>
+      </c>
+      <c r="D1" s="14">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8">
         <v>20</v>
       </c>
-      <c r="C1" s="5">
+      <c r="F1" s="5">
         <v>22</v>
       </c>
-      <c r="D1" s="5">
+      <c r="G1" s="5">
         <v>24</v>
       </c>
-      <c r="E1" s="5">
+      <c r="H1" s="5">
         <v>26</v>
       </c>
-      <c r="F1" s="6">
+      <c r="I1" s="6">
         <v>28</v>
       </c>
-      <c r="G1" s="6">
+      <c r="J1" s="6">
         <v>30</v>
       </c>
-      <c r="H1" s="6">
+      <c r="K1" s="6">
         <v>32</v>
       </c>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -731,9 +754,18 @@
       <c r="H2" s="10">
         <v>36300</v>
       </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="I2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -758,9 +790,18 @@
       <c r="H3" s="10">
         <v>36300</v>
       </c>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" thickBot="1">
+      <c r="I3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -785,7 +826,16 @@
       <c r="H4" s="12">
         <v>36300</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="L4" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -794,41 +844,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E23C9-DC3E-4BE5-A9D5-A8F9D9A54D9A}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="14">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14">
+        <v>16</v>
+      </c>
+      <c r="D1" s="14">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8">
         <v>20</v>
       </c>
-      <c r="C1" s="5">
+      <c r="F1" s="5">
         <v>22</v>
       </c>
-      <c r="D1" s="5">
+      <c r="G1" s="5">
         <v>24</v>
       </c>
-      <c r="E1" s="5">
+      <c r="H1" s="5">
         <v>26</v>
       </c>
-      <c r="F1" s="6">
+      <c r="I1" s="6">
         <v>28</v>
       </c>
-      <c r="G1" s="6">
+      <c r="J1" s="6">
         <v>30</v>
       </c>
-      <c r="H1" s="6">
+      <c r="K1" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -853,8 +912,17 @@
       <c r="H2" s="10">
         <v>36300</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -879,8 +947,17 @@
       <c r="H3" s="10">
         <v>36300</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1">
+      <c r="I3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -903,6 +980,15 @@
         <v>36300</v>
       </c>
       <c r="H4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="12">
         <v>36300</v>
       </c>
     </row>
@@ -913,41 +999,50 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458F40F-3512-4FB5-95B9-40FE45C8F021}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="14">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14">
+        <v>16</v>
+      </c>
+      <c r="D1" s="14">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8">
         <v>20</v>
       </c>
-      <c r="C1" s="5">
+      <c r="F1" s="5">
         <v>22</v>
       </c>
-      <c r="D1" s="5">
+      <c r="G1" s="5">
         <v>24</v>
       </c>
-      <c r="E1" s="5">
+      <c r="H1" s="5">
         <v>26</v>
       </c>
-      <c r="F1" s="6">
+      <c r="I1" s="6">
         <v>28</v>
       </c>
-      <c r="G1" s="6">
+      <c r="J1" s="6">
         <v>30</v>
       </c>
-      <c r="H1" s="6">
+      <c r="K1" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -972,8 +1067,17 @@
       <c r="H2" s="10">
         <v>36300</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -998,8 +1102,17 @@
       <c r="H3" s="10">
         <v>36300</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1">
+      <c r="I3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1022,6 +1135,15 @@
         <v>36300</v>
       </c>
       <c r="H4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="12">
         <v>36300</v>
       </c>
     </row>
@@ -1032,41 +1154,50 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030846B2-DE93-40EC-9427-11E7F9560AE0}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H4"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="14">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14">
+        <v>16</v>
+      </c>
+      <c r="D1" s="14">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8">
         <v>20</v>
       </c>
-      <c r="C1" s="5">
+      <c r="F1" s="5">
         <v>22</v>
       </c>
-      <c r="D1" s="5">
+      <c r="G1" s="5">
         <v>24</v>
       </c>
-      <c r="E1" s="5">
+      <c r="H1" s="5">
         <v>26</v>
       </c>
-      <c r="F1" s="6">
+      <c r="I1" s="6">
         <v>28</v>
       </c>
-      <c r="G1" s="6">
+      <c r="J1" s="6">
         <v>30</v>
       </c>
-      <c r="H1" s="6">
+      <c r="K1" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1091,8 +1222,17 @@
       <c r="H2" s="10">
         <v>36300</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
+      <c r="I2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1117,8 +1257,17 @@
       <c r="H3" s="10">
         <v>36300</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1">
+      <c r="I3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1141,6 +1290,15 @@
         <v>36300</v>
       </c>
       <c r="H4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="12">
         <v>36300</v>
       </c>
     </row>

--- a/SLD.xlsx
+++ b/SLD.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WACKE\Desktop\saflink\flight-review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE\flight-review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D40823-9DAB-4232-BC5E-5F5C76E2E61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C65DDB2-C1F9-4288-ABB5-64FA57111809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WIL" sheetId="1" r:id="rId1"/>
-    <sheet name="UKA" sheetId="2" r:id="rId2"/>
-    <sheet name="MBA" sheetId="3" r:id="rId3"/>
-    <sheet name="LAU" sheetId="4" r:id="rId4"/>
-    <sheet name="MYD" sheetId="5" r:id="rId5"/>
+    <sheet name="NBO" sheetId="6" r:id="rId2"/>
+    <sheet name="KIS" sheetId="7" r:id="rId3"/>
+    <sheet name="ZNZ" sheetId="8" r:id="rId4"/>
+    <sheet name="JRO" sheetId="9" r:id="rId5"/>
+    <sheet name="EBB" sheetId="10" r:id="rId6"/>
+    <sheet name="UKA" sheetId="2" r:id="rId7"/>
+    <sheet name="MBA" sheetId="3" r:id="rId8"/>
+    <sheet name="LAU" sheetId="4" r:id="rId9"/>
+    <sheet name="MYD" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="5">
   <si>
     <t>WAT</t>
   </si>
@@ -42,12 +47,15 @@
   <si>
     <t>TEMP</t>
   </si>
+  <si>
+    <t>TEMPERATURE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +86,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -225,10 +240,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -244,9 +260,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C997FE5C-0C37-4F61-9C33-7027BEC44ED1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -526,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -571,13 +595,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>36300</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="20">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="20">
         <v>36300</v>
       </c>
       <c r="D2" s="2">
@@ -673,6 +697,161 @@
       </c>
       <c r="K4" s="4">
         <v>33600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030846B2-DE93-40EC-9427-11E7F9560AE0}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14">
+        <v>16</v>
+      </c>
+      <c r="D1" s="14">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6">
+        <v>30</v>
+      </c>
+      <c r="K1" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="12">
+        <v>36300</v>
       </c>
     </row>
   </sheetData>
@@ -681,6 +860,757 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785C9027-F4EA-4466-9D0F-2B2FBB1A2A9D}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="20">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="2">
+        <v>36200</v>
+      </c>
+      <c r="E2" s="2">
+        <v>35600</v>
+      </c>
+      <c r="F2" s="3">
+        <v>35100</v>
+      </c>
+      <c r="G2" s="3">
+        <v>34500</v>
+      </c>
+      <c r="H2" s="3">
+        <v>33900</v>
+      </c>
+      <c r="I2" s="3">
+        <v>33400</v>
+      </c>
+      <c r="J2" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K2" s="3">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="1">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="1">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393C0A1A-8DF0-4B98-9D97-9FC5BF685265}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1">
+        <v>28</v>
+      </c>
+      <c r="J1" s="16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="20">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="20">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="20">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="20">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="20">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="3">
+        <v>36200</v>
+      </c>
+      <c r="I2" s="3">
+        <v>35600</v>
+      </c>
+      <c r="J2" s="17">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="16">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="16">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FCFD76-5857-48FC-A742-30C6FA165FEA}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14">
+        <v>16</v>
+      </c>
+      <c r="D1" s="14">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6">
+        <v>30</v>
+      </c>
+      <c r="K1" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="12">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE633147-5C27-46EA-AE83-1A24EEDBE839}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="19">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="19">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="19">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="19">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="19">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="19">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="19">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="3">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="1">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="1">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="1">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="1">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCBA275-1C19-4B14-81E6-5791DC3920F1}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75">
+      <c r="A1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="14">
+        <v>14</v>
+      </c>
+      <c r="C1" s="14">
+        <v>16</v>
+      </c>
+      <c r="D1" s="14">
+        <v>18</v>
+      </c>
+      <c r="E1" s="8">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5">
+        <v>22</v>
+      </c>
+      <c r="G1" s="5">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6">
+        <v>30</v>
+      </c>
+      <c r="K1" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="I2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J2" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K2" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="C3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="D3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="E3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="F3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="G3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="H3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="I3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="J3" s="10">
+        <v>36300</v>
+      </c>
+      <c r="K3" s="10">
+        <v>36300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="C4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="D4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="E4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="F4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="G4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="H4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="I4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="J4" s="12">
+        <v>36300</v>
+      </c>
+      <c r="K4" s="12">
+        <v>36300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E87684-97F2-4B59-9B2C-87ADE9D1AE30}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -842,12 +1772,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4E23C9-DC3E-4BE5-A9D5-A8F9D9A54D9A}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -997,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458F40F-3512-4FB5-95B9-40FE45C8F021}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -1150,159 +2080,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030846B2-DE93-40EC-9427-11E7F9560AE0}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="14">
-        <v>14</v>
-      </c>
-      <c r="C1" s="14">
-        <v>16</v>
-      </c>
-      <c r="D1" s="14">
-        <v>18</v>
-      </c>
-      <c r="E1" s="8">
-        <v>20</v>
-      </c>
-      <c r="F1" s="5">
-        <v>22</v>
-      </c>
-      <c r="G1" s="5">
-        <v>24</v>
-      </c>
-      <c r="H1" s="5">
-        <v>26</v>
-      </c>
-      <c r="I1" s="6">
-        <v>28</v>
-      </c>
-      <c r="J1" s="6">
-        <v>30</v>
-      </c>
-      <c r="K1" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10">
-        <v>36300</v>
-      </c>
-      <c r="C2" s="10">
-        <v>36300</v>
-      </c>
-      <c r="D2" s="10">
-        <v>36300</v>
-      </c>
-      <c r="E2" s="10">
-        <v>36300</v>
-      </c>
-      <c r="F2" s="10">
-        <v>36300</v>
-      </c>
-      <c r="G2" s="10">
-        <v>36300</v>
-      </c>
-      <c r="H2" s="10">
-        <v>36300</v>
-      </c>
-      <c r="I2" s="10">
-        <v>36300</v>
-      </c>
-      <c r="J2" s="10">
-        <v>36300</v>
-      </c>
-      <c r="K2" s="10">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
-        <v>36300</v>
-      </c>
-      <c r="C3" s="10">
-        <v>36300</v>
-      </c>
-      <c r="D3" s="10">
-        <v>36300</v>
-      </c>
-      <c r="E3" s="10">
-        <v>36300</v>
-      </c>
-      <c r="F3" s="10">
-        <v>36300</v>
-      </c>
-      <c r="G3" s="10">
-        <v>36300</v>
-      </c>
-      <c r="H3" s="10">
-        <v>36300</v>
-      </c>
-      <c r="I3" s="10">
-        <v>36300</v>
-      </c>
-      <c r="J3" s="10">
-        <v>36300</v>
-      </c>
-      <c r="K3" s="10">
-        <v>36300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A4" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="12">
-        <v>36300</v>
-      </c>
-      <c r="C4" s="12">
-        <v>36300</v>
-      </c>
-      <c r="D4" s="12">
-        <v>36300</v>
-      </c>
-      <c r="E4" s="12">
-        <v>36300</v>
-      </c>
-      <c r="F4" s="12">
-        <v>36300</v>
-      </c>
-      <c r="G4" s="12">
-        <v>36300</v>
-      </c>
-      <c r="H4" s="12">
-        <v>36300</v>
-      </c>
-      <c r="I4" s="12">
-        <v>36300</v>
-      </c>
-      <c r="J4" s="12">
-        <v>36300</v>
-      </c>
-      <c r="K4" s="12">
-        <v>36300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>